--- a/uploads/social-card.xlsx
+++ b/uploads/social-card.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t xml:space="preserve">name_child</t>
   </si>
@@ -215,24 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">residentialBuilding_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_familyMember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmbg_familyMember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relationToChild_familyMember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_familyMemberTwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmbg_familyMemberTwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relationToChild_familyMemberTwo</t>
   </si>
   <si>
     <t xml:space="preserve">Miki</t>
@@ -340,7 +322,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,12 +411,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0066CC"/>
         <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -537,7 +513,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -546,6 +522,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,7 +563,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFCCFF00"/>
@@ -629,85 +609,84 @@
   <dimension ref="A1:BS65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS9" activeCellId="0" sqref="BS9"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.062962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.3037037037037"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="24.7925925925926"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="23.9111111111111"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="34.4925925925926"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="36.9444444444444"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="45.3703703703704"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="55.0740740740741"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="59.0888888888889"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="25.0851851851852"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="28.5148148148148"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="26.4592592592593"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="31.162962962963"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="37.8259259259259"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="35.6703703703704"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="35.5703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.262962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.2407407407407"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.5333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.5"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.4407407407407"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="25.9666666666667"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="25.0851851851852"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="36.2592592592593"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="38.7074074074074"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="47.6259259259259"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="57.8148148148148"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="62.1296296296296"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="26.3592592592593"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="29.2037037037037"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="27.7333333333333"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="39.6888888888889"/>
+    <col collapsed="false" hidden="false" max="71" min="70" style="0" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,46 +882,34 @@
       <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="17" t="n">
         <v>2039343493</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H2" s="18" t="n">
         <v>72000</v>
@@ -957,37 +924,37 @@
         <v>1</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="17" t="n">
         <v>211945112344</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W2" s="17" t="n">
         <v>71000</v>
@@ -1002,34 +969,34 @@
         <v>1</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="17" t="n">
         <v>33</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AK2" s="17" t="n">
         <v>71000</v>
@@ -1044,98 +1011,86 @@
         <v>1</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AY2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AZ2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BE2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BF2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BG2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BH2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BI2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BK2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BL2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="BM2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BP2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS2" s="17" t="s">
-        <v>86</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="19"/>
+      <c r="BP2" s="19"/>
+      <c r="BQ2" s="19"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1048576" s="17" t="n">

--- a/uploads/social-card.xlsx
+++ b/uploads/social-card.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="socialCard" sheetId="1" state="visible" r:id="rId2"/>
@@ -448,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -511,14 +511,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -608,82 +600,82 @@
   </sheetPr>
   <dimension ref="A1:BS65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048544" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1048576" activeCellId="0" sqref="A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.262962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.2407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.5333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.4407407407407"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="25.9666666666667"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="25.0851851851852"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="29.2037037037037"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="36.2592592592593"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="28.1259259259259"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="23.9111111111111"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="39.2962962962963"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="38.7074074074074"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="47.6259259259259"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="57.8148148148148"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="62.1296296296296"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="26.3592592592593"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="29.2037037037037"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="27.7333333333333"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="32.6333333333333"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="39.6888888888889"/>
-    <col collapsed="false" hidden="false" max="71" min="70" style="0" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.9481481481481"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8296296296296"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.3185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9296296296296"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="26.6555555555556"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="25.6740740740741"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="37.237037037037"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="28.8111111111111"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="24.5"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="32.437037037037"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="24.9888888888889"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="29.3"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="39.6888888888889"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="48.8"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="59.2851851851852"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="63.6962962962963"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="27.0481481481481"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="30.6703703703704"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="28.4185185185185"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="33.4148148148148"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="40.6666666666667"/>
+    <col collapsed="false" hidden="false" max="71" min="70" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="10.5851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,7 +903,7 @@
       <c r="G2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="16" t="n">
         <v>72000</v>
       </c>
       <c r="I2" s="17" t="n">
@@ -1085,295 +1077,14 @@
       <c r="BM2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1048576" s="17" t="n">
-        <f aca="false">SUM(B2:B1048575)</f>
-        <v>2039343493</v>
-      </c>
-      <c r="C1048576" s="17" t="n">
-        <f aca="false">SUM(C2:C1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="D1048576" s="17" t="n">
-        <f aca="false">SUM(D2:D1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="E1048576" s="17" t="n">
-        <f aca="false">SUM(E2:E1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="F1048576" s="17" t="n">
-        <f aca="false">SUM(F2:F1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="G1048576" s="17" t="n">
-        <f aca="false">SUM(G2:G1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="H1048576" s="17" t="n">
-        <f aca="false">SUM(H2:H1048575)</f>
-        <v>72000</v>
-      </c>
-      <c r="I1048576" s="17" t="n">
-        <f aca="false">SUM(I2:I1048575)</f>
-        <v>1</v>
-      </c>
-      <c r="J1048576" s="17" t="n">
-        <f aca="false">SUM(J2:J1048575)</f>
-        <v>1</v>
-      </c>
-      <c r="K1048576" s="17" t="n">
-        <f aca="false">SUM(K2:K1048575)</f>
-        <v>1</v>
-      </c>
-      <c r="L1048576" s="17" t="n">
-        <f aca="false">SUM(L2:L1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="M1048576" s="17" t="n">
-        <f aca="false">SUM(M2:M1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="N1048576" s="17" t="n">
-        <f aca="false">SUM(N2:N1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="O1048576" s="17" t="n">
-        <f aca="false">SUM(O2:O1048575)</f>
-        <v>2</v>
-      </c>
-      <c r="P1048576" s="17" t="n">
-        <f aca="false">SUM(P2:P1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="Q1048576" s="17" t="n">
-        <f aca="false">SUM(Q2:Q1048575)</f>
-        <v>211945112344</v>
-      </c>
-      <c r="R1048576" s="17" t="n">
-        <f aca="false">SUM(R2:R1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="S1048576" s="17" t="n">
-        <f aca="false">SUM(S2:S1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="T1048576" s="17" t="n">
-        <f aca="false">SUM(T2:T1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="U1048576" s="17" t="n">
-        <f aca="false">SUM(U2:U1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="V1048576" s="17" t="n">
-        <f aca="false">SUM(V2:V1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="W1048576" s="17" t="n">
-        <f aca="false">SUM(W2:W1048575)</f>
-        <v>71000</v>
-      </c>
-      <c r="X1048576" s="17" t="n">
-        <f aca="false">SUM(X2:X1048575)</f>
-        <v>65123333</v>
-      </c>
-      <c r="Y1048576" s="17" t="n">
-        <f aca="false">SUM(Y2:Y1048575)</f>
-        <v>65111333</v>
-      </c>
-      <c r="Z1048576" s="17" t="n">
-        <f aca="false">SUM(Z2:Z1048575)</f>
-        <v>1</v>
-      </c>
-      <c r="AA1048576" s="17" t="n">
-        <f aca="false">SUM(AA2:AA1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AB1048576" s="17" t="n">
-        <f aca="false">SUM(AB2:AB1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AC1048576" s="17" t="n">
-        <f aca="false">SUM(AC2:AC1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AD1048576" s="17" t="n">
-        <f aca="false">SUM(AD2:AD1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AE1048576" s="17" t="n">
-        <f aca="false">SUM(AE2:AE1048575)</f>
-        <v>33</v>
-      </c>
-      <c r="AF1048576" s="17" t="n">
-        <f aca="false">SUM(AF2:AF1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AG1048576" s="17" t="n">
-        <f aca="false">SUM(AG2:AG1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AH1048576" s="17" t="n">
-        <f aca="false">SUM(AH2:AH1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AI1048576" s="17" t="n">
-        <f aca="false">SUM(AI2:AI1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ1048576" s="17" t="n">
-        <f aca="false">SUM(AJ2:AJ1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AK1048576" s="17" t="n">
-        <f aca="false">SUM(AK2:AK1048575)</f>
-        <v>71000</v>
-      </c>
-      <c r="AL1048576" s="17" t="n">
-        <f aca="false">SUM(AL2:AL1048575)</f>
-        <v>65122333</v>
-      </c>
-      <c r="AM1048576" s="17" t="n">
-        <f aca="false">SUM(AM2:AM1048575)</f>
-        <v>65131333</v>
-      </c>
-      <c r="AN1048576" s="17" t="n">
-        <f aca="false">SUM(AN2:AN1048575)</f>
-        <v>1</v>
-      </c>
-      <c r="AO1048576" s="17" t="n">
-        <f aca="false">SUM(AO2:AO1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AP1048576" s="17" t="n">
-        <f aca="false">SUM(AP2:AP1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ1048576" s="17" t="n">
-        <f aca="false">SUM(AQ2:AQ1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AR1048576" s="17" t="n">
-        <f aca="false">SUM(AR2:AR1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AS1048576" s="17" t="n">
-        <f aca="false">SUM(AS2:AS1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AT1048576" s="17" t="n">
-        <f aca="false">SUM(AT2:AT1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AU1048576" s="17" t="n">
-        <f aca="false">SUM(AU2:AU1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AV1048576" s="17" t="n">
-        <f aca="false">SUM(AV2:AV1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AW1048576" s="17" t="n">
-        <f aca="false">SUM(AW2:AW1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AX1048576" s="17" t="n">
-        <f aca="false">SUM(AX2:AX1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AY1048576" s="17" t="n">
-        <f aca="false">SUM(AY2:AY1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ1048576" s="17" t="n">
-        <f aca="false">SUM(AZ2:AZ1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BA1048576" s="17" t="n">
-        <f aca="false">SUM(BA2:BA1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BB1048576" s="17" t="n">
-        <f aca="false">SUM(BB2:BB1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BC1048576" s="17" t="n">
-        <f aca="false">SUM(BC2:BC1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BD1048576" s="17" t="n">
-        <f aca="false">SUM(BD2:BD1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BE1048576" s="17" t="n">
-        <f aca="false">SUM(BE2:BE1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BF1048576" s="17" t="n">
-        <f aca="false">SUM(BF2:BF1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BG1048576" s="17" t="n">
-        <f aca="false">SUM(BG2:BG1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BH1048576" s="17" t="n">
-        <f aca="false">SUM(BH2:BH1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BI1048576" s="17" t="n">
-        <f aca="false">SUM(BI2:BI1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ1048576" s="17" t="n">
-        <f aca="false">SUM(BJ2:BJ1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BK1048576" s="17" t="n">
-        <f aca="false">SUM(BK2:BK1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BL1048576" s="17" t="n">
-        <f aca="false">SUM(BL2:BL1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BM1048576" s="17" t="n">
-        <f aca="false">SUM(BM2:BM1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BN1048576" s="17" t="n">
-        <f aca="false">SUM(BN2:BN1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BO1048576" s="17" t="n">
-        <f aca="false">SUM(BO2:BO1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BP1048576" s="17" t="n">
-        <f aca="false">SUM(BP2:BP1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ1048576" s="17" t="n">
-        <f aca="false">SUM(BQ2:BQ1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BR1048576" s="17" t="n">
-        <f aca="false">SUM(BR2:BR1048575)</f>
-        <v>0</v>
-      </c>
-      <c r="BS1048576" s="17" t="n">
-        <f aca="false">SUM()</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/uploads/social-card.xlsx
+++ b/uploads/social-card.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="socialCard" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,8 +19,102 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">child</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">mother</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">father</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Family</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Family member</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Family member</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t xml:space="preserve">name_child</t>
   </si>
@@ -67,154 +161,115 @@
     <t xml:space="preserve">healthState_child</t>
   </si>
   <si>
-    <t xml:space="preserve">name_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmbg_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citizenId_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">issuedBy_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">municipality_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postNumber_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tel_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualifications_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nameOfEmployer_mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmbg_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citizenId_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">issuedBy_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">municipality_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postNumber_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tel_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualifications_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nameOfEmployer_father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meritalStatusFamily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronicalDecease_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronicalDeceaseText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilityText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialNeeds_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyRelations_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incomeBySalary_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incomeBySalaryText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyPension_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyPensionText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unemploymentBenefit_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unemploymentBenefitText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilityCompensation_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilityCompensationText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compensationForTheSocialProtectionSystem_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compensationForTheSocialProtectionSystemText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherIncome_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherIncomeText_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyResidence_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">housingConditions_family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">residentialBuilding_family</t>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmbg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citizenId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issuedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameOfEmployer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronicalDecease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronicalDeceaseText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilityText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialNeeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyRelations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomeBySalary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomeBySalaryText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyPension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyPensionText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unemploymentBenefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unemploymentBenefitText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilityCompensation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilityCompensationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compensationForTheSocialProtectionSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compensationForTheSocialProtectionSystemText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherIncome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherIncomeText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyResidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">housingConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residentialBuilding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relationToChild</t>
   </si>
   <si>
     <t xml:space="preserve">Miki</t>
@@ -322,7 +377,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +468,12 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -448,7 +509,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,11 +574,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,7 +620,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFCCFF00"/>
@@ -600,85 +665,70 @@
   </sheetPr>
   <dimension ref="A1:BS65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048544" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1048576" activeCellId="0" sqref="A1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.3185185185185"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="26.5555555555556"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="30.7703703703704"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="25.6740740740741"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="37.237037037037"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="28.8111111111111"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="24.5"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="32.437037037037"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="29.3"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="40.2740740740741"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="39.6888888888889"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="48.8"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="59.2851851851852"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="63.6962962962963"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="27.0481481481481"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="30.6703703703704"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="28.4185185185185"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="33.4148148148148"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="40.6666666666667"/>
-    <col collapsed="false" hidden="false" max="71" min="70" style="0" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5185185185185"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5592592592593"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.9481481481481"/>
+    <col collapsed="false" hidden="false" max="41" min="30" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="28.2222222222222"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="26.9481481481481"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="26.3592592592593"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="29.3"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="47.4296296296296"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="53.5037037037037"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="22.9296296296296"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="23.1259259259259"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="70" min="69" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,143 +817,155 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AS1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AT1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AU1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AV1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AW1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AX1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AY1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="BA1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="BB1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="BC1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="BD1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="BE1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="BF1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="BG1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="BH1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="BI1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BK1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="BL1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="BM1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
+      <c r="BQ1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS1" s="16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B2" s="17" t="n">
         <v>2039343493</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="H2" s="18" t="n">
         <v>72000</v>
       </c>
       <c r="I2" s="17" t="n">
@@ -916,37 +978,37 @@
         <v>1</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="17" t="n">
         <v>211945112344</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W2" s="17" t="n">
         <v>71000</v>
@@ -961,34 +1023,34 @@
         <v>1</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="17" t="n">
         <v>33</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AK2" s="17" t="n">
         <v>71000</v>
@@ -1003,87 +1065,1786 @@
         <v>1</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AY2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AZ2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BD2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BE2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BF2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BG2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BH2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BI2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BK2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BL2" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BM2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17"/>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="BN2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
+    <row r="1046889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1093,5 +2854,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/uploads/social-card.xlsx
+++ b/uploads/social-card.xlsx
@@ -81,40 +81,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Family member</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BQ1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Family member</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t xml:space="preserve">name_child</t>
   </si>
@@ -161,115 +133,154 @@
     <t xml:space="preserve">healthState_child</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jmbg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citizenId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">issuedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">municipality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nameOfEmployer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronicalDecease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronicalDeceaseText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilityText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialNeeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyRelations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incomeBySalary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incomeBySalaryText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyPension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyPensionText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unemploymentBenefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unemploymentBenefitText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilityCompensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilityCompensationText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compensationForTheSocialProtectionSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compensationForTheSocialProtectionSystemText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherIncome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherIncomeText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">familyResidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">housingConditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">residentialBuilding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relationToChild</t>
+    <t xml:space="preserve">name_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmbg_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citizenId_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issuedBy_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipality_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postNumber_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameOfEmployer_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmbg_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citizenId_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issuedBy_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipality_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postNumber_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mob_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameOfEmployer_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meritalStatus_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronicalDecease_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronicalDeceaseText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilityText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialNeeds_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyRelations_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomeBySalary_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomeBySalaryText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyPension_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyPensionText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unemploymentBenefit_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unemploymentBenefitText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilityCompensation_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilityCompensationText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compensationForTheSocialProtectionSystem_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compensationForTheSocialProtectionSystemText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherIncome_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherIncomeText_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familyResidence_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">housingConditions_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residentialBuilding_family</t>
   </si>
   <si>
     <t xml:space="preserve">Miki</t>
@@ -377,7 +388,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +479,6 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -509,7 +514,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,15 +579,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,7 +621,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFCCFF00"/>
@@ -665,70 +666,77 @@
   </sheetPr>
   <dimension ref="A1:BS65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP12" activeCellId="0" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5592592592593"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="41" min="30" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="28.2222222222222"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="29.9851851851852"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="26.3592592592593"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="29.3"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="47.4296296296296"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="53.5037037037037"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="23.1259259259259"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="70" min="69" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.637037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.2074074074074"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="36" min="34" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.1703703703704"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="23.4222222222222"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="27.6333333333333"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="30.7703703703704"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="49.7814814814815"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="56.2481481481481"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="29.0074074074074"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="15.8740740740741"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="70" min="69" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,155 +825,143 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="12" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="11" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="15" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="BR1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS1" s="16" t="s">
-        <v>51</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B2" s="17" t="n">
         <v>2039343493</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="18" t="n">
+        <v>68</v>
+      </c>
+      <c r="H2" s="16" t="n">
         <v>72000</v>
       </c>
       <c r="I2" s="17" t="n">
@@ -978,37 +974,37 @@
         <v>1</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="17" t="n">
         <v>211945112344</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="W2" s="17" t="n">
         <v>71000</v>
@@ -1023,34 +1019,34 @@
         <v>1</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="17" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="17" t="n">
         <v>33</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AK2" s="17" t="n">
         <v>71000</v>
@@ -1065,98 +1061,86 @@
         <v>1</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="AR2" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="AX2" s="17" t="n">
+        <v>1</v>
       </c>
       <c r="AY2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AZ2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BE2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BF2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BG2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BH2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BI2" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS2" s="17" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="BK2" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
     </row>
     <row r="1046889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
